--- a/public/downloads/Template Files/Trial Balance report result.xlsx
+++ b/public/downloads/Template Files/Trial Balance report result.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B928F77-C901-4883-9ED2-BE14148DA143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trial Balance Report Result" sheetId="1" r:id="rId1"/>
@@ -23,8 +24,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Query - TTrialBalanceReport?IgnoreDates=false&amp;DateFrom=%222023-01-01%22&amp;DateTo=%222023-0" description="Connection to the 'TTrialBalanceReport?IgnoreDates=false&amp;DateFrom=%222023-01-01%22&amp;DateTo=%222023-0' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Query - TTrialBalanceReport?IgnoreDates=false&amp;DateFrom=%222023-01-01%22&amp;DateTo=%222023-0" description="Connection to the 'TTrialBalanceReport?IgnoreDates=false&amp;DateFrom=%222023-01-01%22&amp;DateTo=%222023-0' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;TTrialBalanceReport?IgnoreDates=false&amp;DateFrom=%222023-01-01%22&amp;DateTo=%222023-0&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [TTrialBalanceReport?IgnoreDates=false&amp;DateFrom=%222023-01-01%22&amp;DateTo=%222023-0]"/>
   </connection>
 </connections>
@@ -330,7 +331,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -464,14 +465,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -699,7 +698,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="13">
     <queryTableFields count="12">
       <queryTableField id="1" name="T.ID" tableColumnId="13"/>
@@ -720,23 +719,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TTrialBalanceReport_IgnoreDates_false_DateFrom__222023_01_01_22_DateTo__222023_0" displayName="TTrialBalanceReport_IgnoreDates_false_DateFrom__222023_01_01_22_DateTo__222023_0" ref="A1:L46" tableType="queryTable" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TTrialBalanceReport_IgnoreDates_false_DateFrom__222023_01_01_22_DateTo__222023_0" displayName="TTrialBalanceReport_IgnoreDates_false_DateFrom__222023_01_01_22_DateTo__222023_0" ref="A1:L46" tableType="queryTable" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L46" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
-    <tableColumn id="13" uniqueName="13" name="T.ID" queryTableFieldId="1" dataDxfId="11"/>
-    <tableColumn id="2" uniqueName="2" name="T.AccountName" queryTableFieldId="2" dataDxfId="10"/>
-    <tableColumn id="3" uniqueName="3" name="T.AccountNameOnly" queryTableFieldId="3" dataDxfId="9"/>
-    <tableColumn id="4" uniqueName="4" name="T.AccountNumber" queryTableFieldId="4" dataDxfId="8"/>
-    <tableColumn id="5" uniqueName="5" name="T.CreditsEx" queryTableFieldId="5" dataDxfId="7"/>
-    <tableColumn id="6" uniqueName="6" name="T.DebitsEx" queryTableFieldId="6" dataDxfId="6"/>
-    <tableColumn id="7" uniqueName="7" name="T.CreditsInc" queryTableFieldId="7" dataDxfId="5"/>
-    <tableColumn id="8" uniqueName="8" name="T.DebitsInc" queryTableFieldId="8" dataDxfId="4"/>
-    <tableColumn id="9" uniqueName="9" name="T.TransID" queryTableFieldId="9" dataDxfId="3"/>
-    <tableColumn id="10" uniqueName="10" name="T.SortID" queryTableFieldId="10" dataDxfId="2"/>
-    <tableColumn id="11" uniqueName="11" name="T.SortOrder" queryTableFieldId="11" dataDxfId="1"/>
-    <tableColumn id="12" uniqueName="12" name="T.Account" queryTableFieldId="12" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="T.ID" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="T.AccountName" queryTableFieldId="2" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="T.AccountNameOnly" queryTableFieldId="3" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="T.AccountNumber" queryTableFieldId="4" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="T.CreditsEx" queryTableFieldId="5" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="T.DebitsEx" queryTableFieldId="6" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="T.CreditsInc" queryTableFieldId="7" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="T.DebitsInc" queryTableFieldId="8" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="T.TransID" queryTableFieldId="9" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="T.SortID" queryTableFieldId="10" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="T.SortOrder" queryTableFieldId="11" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="T.Account" queryTableFieldId="12" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1002,11 +1001,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,469 +1016,469 @@
     <col min="4" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>578484</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6">
         <v>92.430009999999996</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="6">
         <v>92.430009999999996</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>578484</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>0.1</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>0.1</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>456788</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>318302.00991000002</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>308845.96990999999</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
         <v>430692.87001000001</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <v>430000.02000999998</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>454554888</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6">
         <v>7738.0100199999997</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="6">
         <v>7794.9900200000002</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6">
         <v>100</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>100</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
         <v>10.00001</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="6">
         <v>11.00001</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
         <v>30</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6">
         <v>81758</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="6">
         <v>81758</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>2345</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
         <v>143940.80007999999</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="6">
         <v>143950.80007999999</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <v>445677</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <v>2000</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="6">
         <v>2000</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="6">
         <v>12865656565</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <v>5209.2099500000004</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="6">
         <v>5095.8789500000003</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="6">
         <v>456788</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6">
         <v>395</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="6">
         <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6">
         <v>64900</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="6">
         <v>64900</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6">
         <v>5074.7681692188999</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="6">
         <v>5196.5981692188998</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="6">
         <v>855885</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6">
         <v>2305.12</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="6">
         <v>2315.61</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="6">
         <v>573838383</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6">
         <v>188309.05</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="6">
         <v>188361.55</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6">
         <v>200</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="6">
         <v>220</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="6">
         <v>4566</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="6">
         <v>668686</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6">
         <v>12937.6</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="6">
         <v>53914.6</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="6">
         <v>234</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="6">
         <v>99.999989999999997</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="6">
         <v>99.999989999999997</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="6">
         <v>738282</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="6">
         <v>2620.5899899999999</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="6">
         <v>2606.9534899999999</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8">
         <v>287</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="8">
         <v>287</v>
       </c>
     </row>
@@ -1489,31 +1488,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2122,1142 +2121,1142 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>25</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
         <v>873</v>
       </c>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2">
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
         <v>8</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>34</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
         <v>12937.6</v>
       </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
         <v>53914.6</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>273</v>
       </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
         <v>12</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>24</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>99.999989999999997</v>
       </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
         <v>99.999989999999997</v>
       </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
         <v>840</v>
       </c>
-      <c r="J19" s="2">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
         <v>8</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>45</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>2620.5899899999999</v>
       </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
         <v>2606.9534899999999</v>
       </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
         <v>814</v>
       </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2">
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
         <v>13</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>14</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
         <v>287</v>
       </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
         <v>287</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="1">
         <v>662</v>
       </c>
-      <c r="J21" s="2">
-        <v>0</v>
-      </c>
-      <c r="K21" s="2">
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
         <v>6</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>43</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2">
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
         <v>3140.0000100000002</v>
       </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
         <v>3140.0000100000002</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="1">
         <v>369</v>
       </c>
-      <c r="J22" s="2">
-        <v>0</v>
-      </c>
-      <c r="K22" s="2">
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
         <v>13</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>23</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
         <v>181.82</v>
       </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
         <v>200</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="1">
         <v>872</v>
       </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2">
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
         <v>8</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>44</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>50</v>
       </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2">
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
         <v>50</v>
       </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2">
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
         <v>865</v>
       </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
-      <c r="K24" s="2">
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
         <v>13</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L24" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>33</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
         <v>1037.1800499999999</v>
       </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
         <v>1024.2000499999999</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="1">
         <v>691</v>
       </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
-      <c r="K25" s="2">
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
         <v>12</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L25" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>1</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>318302.00991000002</v>
       </c>
-      <c r="F26" s="2">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2">
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
         <v>308845.96990999999</v>
       </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2">
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
         <v>1072</v>
       </c>
-      <c r="J26" s="2">
-        <v>0</v>
-      </c>
-      <c r="K26" s="2">
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
         <v>1</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="L26" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>4</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2">
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
         <v>1068</v>
       </c>
-      <c r="J27" s="2">
-        <v>0</v>
-      </c>
-      <c r="K27" s="2">
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
         <v>2</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L27" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>5</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2">
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
         <v>900</v>
       </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
         <v>900</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="1">
         <v>1424</v>
       </c>
-      <c r="J28" s="2">
-        <v>0</v>
-      </c>
-      <c r="K28" s="2">
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
         <v>3</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="L28" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>36</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2">
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
         <v>30</v>
       </c>
-      <c r="G29" s="2">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
         <v>30</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="1">
         <v>652</v>
       </c>
-      <c r="J29" s="2">
-        <v>0</v>
-      </c>
-      <c r="K29" s="2">
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
         <v>13</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L29" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>37</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>100</v>
       </c>
-      <c r="F30" s="2">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2">
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
         <v>100</v>
       </c>
-      <c r="H30" s="2">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2">
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
         <v>699</v>
       </c>
-      <c r="J30" s="2">
-        <v>0</v>
-      </c>
-      <c r="K30" s="2">
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
         <v>13</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L30" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>2</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2">
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
         <v>395</v>
       </c>
-      <c r="G31" s="2">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
         <v>395</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="1">
         <v>1175</v>
       </c>
-      <c r="J31" s="2">
-        <v>0</v>
-      </c>
-      <c r="K31" s="2">
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
         <v>1</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L31" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>11</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>338922.09342921898</v>
       </c>
-      <c r="F32" s="2">
-        <v>0</v>
-      </c>
-      <c r="G32" s="2">
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
         <v>442903.20997921901</v>
       </c>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2">
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
         <v>77</v>
       </c>
-      <c r="J32" s="2">
-        <v>0</v>
-      </c>
-      <c r="K32" s="2">
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
         <v>5</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="L32" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>8403.9</v>
       </c>
-      <c r="F33" s="2">
-        <v>0</v>
-      </c>
-      <c r="G33" s="2">
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
         <v>9285.5499999999993</v>
       </c>
-      <c r="H33" s="2">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2">
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
         <v>1226</v>
       </c>
-      <c r="J33" s="2">
-        <v>0</v>
-      </c>
-      <c r="K33" s="2">
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
         <v>9</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="L33" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>9</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>5796</v>
       </c>
-      <c r="F34" s="2">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2">
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
         <v>5796</v>
       </c>
-      <c r="H34" s="2">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2">
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
         <v>819</v>
       </c>
-      <c r="J34" s="2">
-        <v>0</v>
-      </c>
-      <c r="K34" s="2">
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
         <v>4</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="L34" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>42</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>110884.1491</v>
       </c>
-      <c r="F35" s="2">
-        <v>0</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0</v>
-      </c>
-      <c r="H35" s="2">
-        <v>0</v>
-      </c>
-      <c r="I35" s="2">
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
         <v>374</v>
       </c>
-      <c r="J35" s="2">
-        <v>0</v>
-      </c>
-      <c r="K35" s="2">
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
         <v>13</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="L35" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>40</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>1864.15</v>
       </c>
-      <c r="F36" s="2">
-        <v>0</v>
-      </c>
-      <c r="G36" s="2">
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
         <v>1864.15</v>
       </c>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2">
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
         <v>796</v>
       </c>
-      <c r="J36" s="2">
-        <v>0</v>
-      </c>
-      <c r="K36" s="2">
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
         <v>13</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="L36" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>8</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>130</v>
       </c>
-      <c r="F37" s="2">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2">
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
         <v>130</v>
       </c>
-      <c r="H37" s="2">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2">
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
         <v>790</v>
       </c>
-      <c r="J37" s="2">
-        <v>0</v>
-      </c>
-      <c r="K37" s="2">
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
         <v>4</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="L37" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>13</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>735</v>
       </c>
-      <c r="F38" s="2">
-        <v>0</v>
-      </c>
-      <c r="G38" s="2">
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
         <v>735</v>
       </c>
-      <c r="H38" s="2">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2">
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
         <v>792</v>
       </c>
-      <c r="J38" s="2">
-        <v>0</v>
-      </c>
-      <c r="K38" s="2">
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
         <v>6</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L38" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>10</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E39" s="2">
-        <v>0</v>
-      </c>
-      <c r="F39" s="2">
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
         <v>143940.80007999999</v>
       </c>
-      <c r="G39" s="2">
-        <v>0</v>
-      </c>
-      <c r="H39" s="2">
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
         <v>143950.80007999999</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="1">
         <v>2</v>
       </c>
-      <c r="J39" s="2">
-        <v>0</v>
-      </c>
-      <c r="K39" s="2">
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
         <v>4</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="L39" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="2">
-        <v>0</v>
-      </c>
-      <c r="F40" s="2">
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
         <v>20</v>
       </c>
-      <c r="G40" s="2">
-        <v>0</v>
-      </c>
-      <c r="H40" s="2">
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
         <v>20</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="1">
         <v>864</v>
       </c>
-      <c r="J40" s="2">
-        <v>0</v>
-      </c>
-      <c r="K40" s="2">
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
         <v>13</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="L40" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>38</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>11218.73</v>
       </c>
-      <c r="F41" s="2">
-        <v>0</v>
-      </c>
-      <c r="G41" s="2">
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
         <v>11218.73</v>
       </c>
-      <c r="H41" s="2">
-        <v>0</v>
-      </c>
-      <c r="I41" s="2">
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
         <v>594</v>
       </c>
-      <c r="J41" s="2">
-        <v>0</v>
-      </c>
-      <c r="K41" s="2">
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
         <v>13</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="L41" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>29</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>980.89</v>
       </c>
-      <c r="F42" s="2">
-        <v>0</v>
-      </c>
-      <c r="G42" s="2">
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
         <v>980.89</v>
       </c>
-      <c r="H42" s="2">
-        <v>0</v>
-      </c>
-      <c r="I42" s="2">
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
         <v>1304</v>
       </c>
-      <c r="J42" s="2">
-        <v>0</v>
-      </c>
-      <c r="K42" s="2">
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
         <v>9</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="L42" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>22</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E43" s="2">
-        <v>0</v>
-      </c>
-      <c r="F43" s="2">
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
         <v>500</v>
       </c>
-      <c r="G43" s="2">
-        <v>0</v>
-      </c>
-      <c r="H43" s="2">
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
         <v>500</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="1">
         <v>768</v>
       </c>
-      <c r="J43" s="2">
-        <v>0</v>
-      </c>
-      <c r="K43" s="2">
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
         <v>8</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="L43" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>41</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="2">
-        <v>0</v>
-      </c>
-      <c r="F44" s="2">
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
         <v>56126.544549999999</v>
       </c>
-      <c r="G44" s="2">
-        <v>0</v>
-      </c>
-      <c r="H44" s="2">
-        <v>0</v>
-      </c>
-      <c r="I44" s="2">
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
         <v>495</v>
       </c>
-      <c r="J44" s="2">
-        <v>0</v>
-      </c>
-      <c r="K44" s="2">
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
         <v>13</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="L44" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>32</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="2">
-        <v>0</v>
-      </c>
-      <c r="F45" s="2">
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
         <v>8900</v>
       </c>
-      <c r="G45" s="2">
-        <v>0</v>
-      </c>
-      <c r="H45" s="2">
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
         <v>8900</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="1">
         <v>1487</v>
       </c>
-      <c r="J45" s="2">
-        <v>0</v>
-      </c>
-      <c r="K45" s="2">
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
         <v>12</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="L45" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>31</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="2">
-        <v>0</v>
-      </c>
-      <c r="F46" s="2">
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
         <v>90924.29</v>
       </c>
-      <c r="G46" s="2">
-        <v>0</v>
-      </c>
-      <c r="H46" s="2">
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
         <v>90924.29</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="1">
         <v>604</v>
       </c>
-      <c r="J46" s="2">
-        <v>0</v>
-      </c>
-      <c r="K46" s="2">
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
         <v>12</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="L46" s="1" t="s">
         <v>90</v>
       </c>
     </row>
